--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H2">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I2">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J2">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>1.790975258462325</v>
+        <v>2.02201114171025</v>
       </c>
       <c r="R2">
-        <v>1.790975258462325</v>
+        <v>8.088044566840999</v>
       </c>
       <c r="S2">
-        <v>0.00147272519810452</v>
+        <v>0.001531207213045076</v>
       </c>
       <c r="T2">
-        <v>0.00147272519810452</v>
+        <v>0.0008452047330816193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H3">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I3">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J3">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>1.57371179523304</v>
+        <v>1.958052803402333</v>
       </c>
       <c r="R3">
-        <v>1.57371179523304</v>
+        <v>11.748316820414</v>
       </c>
       <c r="S3">
-        <v>0.001294068694943255</v>
+        <v>0.001482773519020707</v>
       </c>
       <c r="T3">
-        <v>0.001294068694943255</v>
+        <v>0.001227705028118389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H4">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I4">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J4">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>0.9845547826020925</v>
+        <v>0.01071059750516667</v>
       </c>
       <c r="R4">
-        <v>0.9845547826020925</v>
+        <v>0.06426358503099999</v>
       </c>
       <c r="S4">
-        <v>0.000809602829743905</v>
+        <v>8.110808005767112E-06</v>
       </c>
       <c r="T4">
-        <v>0.000809602829743905</v>
+        <v>6.715577020393299E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H5">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I5">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J5">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>1.754091356923398</v>
+        <v>0.04627124519383334</v>
       </c>
       <c r="R5">
-        <v>1.754091356923398</v>
+        <v>0.277627471163</v>
       </c>
       <c r="S5">
-        <v>0.001442395437297316</v>
+        <v>3.503979920577891E-05</v>
       </c>
       <c r="T5">
-        <v>0.001442395437297316</v>
+        <v>2.901221064266439E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.721663941584619</v>
+        <v>0.6496915</v>
       </c>
       <c r="H6">
-        <v>0.721663941584619</v>
+        <v>1.299383</v>
       </c>
       <c r="I6">
-        <v>0.006292673982080351</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J6">
-        <v>0.006292673982080351</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>2.245564879354489</v>
+        <v>1.145896198454833</v>
       </c>
       <c r="R6">
-        <v>2.245564879354489</v>
+        <v>6.875377190728999</v>
       </c>
       <c r="S6">
-        <v>0.001846535827995338</v>
+        <v>0.0008677521544173586</v>
       </c>
       <c r="T6">
-        <v>0.001846535827995338</v>
+        <v>0.0007184803811726815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.721663941584619</v>
+        <v>0.6496915</v>
       </c>
       <c r="H7">
-        <v>0.721663941584619</v>
+        <v>1.299383</v>
       </c>
       <c r="I7">
-        <v>0.006292673982080351</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J7">
-        <v>0.006292673982080351</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>1.973155084585194</v>
+        <v>1.98203302494925</v>
       </c>
       <c r="R7">
-        <v>1.973155084585194</v>
+        <v>7.928132099797</v>
       </c>
       <c r="S7">
-        <v>0.001622532304176887</v>
+        <v>0.001500933007584158</v>
       </c>
       <c r="T7">
-        <v>0.001622532304176887</v>
+        <v>0.0008284937996900718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H8">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J8">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>1.234456830805104</v>
+        <v>3.105138491427334</v>
       </c>
       <c r="R8">
-        <v>1.234456830805104</v>
+        <v>18.630830948564</v>
       </c>
       <c r="S8">
-        <v>0.001015098155102274</v>
+        <v>0.00235142643751998</v>
       </c>
       <c r="T8">
-        <v>0.001015098155102274</v>
+        <v>0.001946931222848116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H9">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J9">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>2.199319017767047</v>
+        <v>3.006919696272889</v>
       </c>
       <c r="R9">
-        <v>2.199319017767047</v>
+        <v>27.062277266456</v>
       </c>
       <c r="S9">
-        <v>0.001808507694805852</v>
+        <v>0.002277048347065998</v>
       </c>
       <c r="T9">
-        <v>0.001808507694805852</v>
+        <v>0.00282802161196664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H10">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J10">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>117.4494067731999</v>
+        <v>0.01644792548044444</v>
       </c>
       <c r="R10">
-        <v>117.4494067731999</v>
+        <v>0.148031329324</v>
       </c>
       <c r="S10">
-        <v>0.09657905660060678</v>
+        <v>1.24555110581549E-05</v>
       </c>
       <c r="T10">
-        <v>0.09657905660060678</v>
+        <v>1.546934851248926E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H11">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J11">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>103.2016025396122</v>
+        <v>0.07105728625022224</v>
       </c>
       <c r="R11">
-        <v>103.2016025396122</v>
+        <v>0.6395155762520001</v>
       </c>
       <c r="S11">
-        <v>0.08486303751362043</v>
+        <v>5.380951024519148E-05</v>
       </c>
       <c r="T11">
-        <v>0.08486303751362043</v>
+        <v>6.682969999245746E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H12">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J12">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>64.56559051050962</v>
+        <v>1.759716511746222</v>
       </c>
       <c r="R12">
-        <v>64.56559051050962</v>
+        <v>15.837448605716</v>
       </c>
       <c r="S12">
-        <v>0.05309251014275019</v>
+        <v>0.001332579509636773</v>
       </c>
       <c r="T12">
-        <v>0.05309251014275019</v>
+        <v>0.001655021360338061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H13">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J13">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>115.0306171585699</v>
+        <v>3.043745363264667</v>
       </c>
       <c r="R13">
-        <v>115.0306171585699</v>
+        <v>18.262472179588</v>
       </c>
       <c r="S13">
-        <v>0.09459007746895894</v>
+        <v>0.002304935298705302</v>
       </c>
       <c r="T13">
-        <v>0.09459007746895894</v>
+        <v>0.001908437545861339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H14">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I14">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J14">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>224.4504803369323</v>
+        <v>130.8910426776593</v>
       </c>
       <c r="R14">
-        <v>224.4504803369323</v>
+        <v>785.346256065956</v>
       </c>
       <c r="S14">
-        <v>0.184566412381747</v>
+        <v>0.09911978452379014</v>
       </c>
       <c r="T14">
-        <v>0.184566412381747</v>
+        <v>0.08206907952216337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H15">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I15">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J15">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>197.22236065685</v>
+        <v>126.7508213819582</v>
       </c>
       <c r="R15">
-        <v>197.22236065685</v>
+        <v>1140.757392437624</v>
       </c>
       <c r="S15">
-        <v>0.1621766346556767</v>
+        <v>0.0959845215270599</v>
       </c>
       <c r="T15">
-        <v>0.1621766346556767</v>
+        <v>0.1192097223770256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H16">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I16">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J16">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>123.3874074077346</v>
+        <v>0.693330143555111</v>
       </c>
       <c r="R16">
-        <v>123.3874074077346</v>
+        <v>6.239971291996</v>
       </c>
       <c r="S16">
-        <v>0.1014618952213637</v>
+        <v>0.0005250377186028849</v>
       </c>
       <c r="T16">
-        <v>0.1014618952213637</v>
+        <v>0.0006520801445519689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H17">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I17">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J17">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>219.8280773316446</v>
+        <v>2.995280987567556</v>
       </c>
       <c r="R17">
-        <v>219.8280773316446</v>
+        <v>26.957528888108</v>
       </c>
       <c r="S17">
-        <v>0.1807653942774958</v>
+        <v>0.002268234708826071</v>
       </c>
       <c r="T17">
-        <v>0.1807653942774958</v>
+        <v>0.002817075353642927</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62863516954816</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H18">
-        <v>0.62863516954816</v>
+        <v>126.169628</v>
       </c>
       <c r="I18">
-        <v>0.005481493459338287</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J18">
-        <v>0.005481493459338287</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>1.956091994238679</v>
+        <v>74.17740937335155</v>
       </c>
       <c r="R18">
-        <v>1.956091994238679</v>
+        <v>667.596684360164</v>
       </c>
       <c r="S18">
-        <v>0.001608501265505575</v>
+        <v>0.05617228408613252</v>
       </c>
       <c r="T18">
-        <v>0.001608501265505575</v>
+        <v>0.06976418994080685</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62863516954816</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H19">
-        <v>0.62863516954816</v>
+        <v>126.169628</v>
       </c>
       <c r="I19">
-        <v>0.005481493459338287</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J19">
-        <v>0.005481493459338287</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>1.718798196317509</v>
+        <v>128.3031353812087</v>
       </c>
       <c r="R19">
-        <v>1.718798196317509</v>
+        <v>769.8188122872521</v>
       </c>
       <c r="S19">
-        <v>0.001413373748304432</v>
+        <v>0.09716004145547766</v>
       </c>
       <c r="T19">
-        <v>0.001413373748304432</v>
+        <v>0.08044645382247027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.62863516954816</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H20">
-        <v>0.62863516954816</v>
+        <v>216.653855</v>
       </c>
       <c r="I20">
-        <v>0.005481493459338287</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J20">
-        <v>0.005481493459338287</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>1.075324585885601</v>
+        <v>224.7612950169308</v>
       </c>
       <c r="R20">
-        <v>1.075324585885601</v>
+        <v>1348.567770101585</v>
       </c>
       <c r="S20">
-        <v>0.0008842431553938447</v>
+        <v>0.1702048564639382</v>
       </c>
       <c r="T20">
-        <v>0.0008842431553938447</v>
+        <v>0.1409260115657807</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.62863516954816</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H21">
-        <v>0.62863516954816</v>
+        <v>216.653855</v>
       </c>
       <c r="I21">
-        <v>0.005481493459338287</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J21">
-        <v>0.005481493459338287</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N21">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O21">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P21">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q21">
-        <v>1.915807627285153</v>
+        <v>217.6518589467322</v>
       </c>
       <c r="R21">
-        <v>1.915807627285153</v>
+        <v>1958.86673052059</v>
       </c>
       <c r="S21">
-        <v>0.001575375290134434</v>
+        <v>0.1648210979045449</v>
       </c>
       <c r="T21">
-        <v>0.001575375290134434</v>
+        <v>0.2047025604804221</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H22">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I22">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J22">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N22">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O22">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P22">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q22">
-        <v>8.961321549371629</v>
+        <v>1.190561078526111</v>
       </c>
       <c r="R22">
-        <v>8.961321549371629</v>
+        <v>10.715049706735</v>
       </c>
       <c r="S22">
-        <v>0.007368925947870242</v>
+        <v>0.0009015755024316963</v>
       </c>
       <c r="T22">
-        <v>0.007368925947870242</v>
+        <v>0.001119728094039726</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H23">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I23">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J23">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N23">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O23">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P23">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q23">
-        <v>7.874222358174925</v>
+        <v>5.143386590350556</v>
       </c>
       <c r="R23">
-        <v>7.874222358174925</v>
+        <v>46.290479313155</v>
       </c>
       <c r="S23">
-        <v>0.006475000493484572</v>
+        <v>0.003894929401804774</v>
       </c>
       <c r="T23">
-        <v>0.006475000493484572</v>
+        <v>0.00483737841560592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H24">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I24">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J24">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N24">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O24">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P24">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q24">
-        <v>4.926317071205164</v>
+        <v>127.3747251965405</v>
       </c>
       <c r="R24">
-        <v>4.926317071205164</v>
+        <v>1146.372526768865</v>
       </c>
       <c r="S24">
-        <v>0.004050927700053946</v>
+        <v>0.09645698480949602</v>
       </c>
       <c r="T24">
-        <v>0.004050927700053946</v>
+        <v>0.1197965067443016</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H25">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I25">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J25">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N25">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O25">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P25">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q25">
-        <v>8.776769306048365</v>
+        <v>220.3174355790742</v>
       </c>
       <c r="R25">
-        <v>8.776769306048365</v>
+        <v>1321.904613474445</v>
       </c>
       <c r="S25">
-        <v>0.007217167994864103</v>
+        <v>0.1668396575861272</v>
       </c>
       <c r="T25">
-        <v>0.007217167994864103</v>
+        <v>0.1381396982617533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.695089</v>
+      </c>
+      <c r="H26">
+        <v>2.085267</v>
+      </c>
+      <c r="I26">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J26">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>2.1633001239515</v>
+      </c>
+      <c r="R26">
+        <v>12.979800743709</v>
+      </c>
+      <c r="S26">
+        <v>0.001638201039275239</v>
+      </c>
+      <c r="T26">
+        <v>0.001356395718690262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.695089</v>
+      </c>
+      <c r="H27">
+        <v>2.085267</v>
+      </c>
+      <c r="I27">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J27">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>2.094872666587333</v>
+      </c>
+      <c r="R27">
+        <v>18.853853999286</v>
+      </c>
+      <c r="S27">
+        <v>0.001586383018036382</v>
+      </c>
+      <c r="T27">
+        <v>0.00197023724403763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.695089</v>
+      </c>
+      <c r="H28">
+        <v>2.085267</v>
+      </c>
+      <c r="I28">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J28">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>0.01145900555766667</v>
+      </c>
+      <c r="R28">
+        <v>0.103131050019</v>
+      </c>
+      <c r="S28">
+        <v>8.67755454076382E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.077724669830564E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.695089</v>
+      </c>
+      <c r="H29">
+        <v>2.085267</v>
+      </c>
+      <c r="I29">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J29">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>0.04950447027633334</v>
+      </c>
+      <c r="R29">
+        <v>0.445540232487</v>
+      </c>
+      <c r="S29">
+        <v>3.748822170237052E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.655917881809817E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.695089</v>
+      </c>
+      <c r="H30">
+        <v>2.085267</v>
+      </c>
+      <c r="I30">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J30">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>1.225966235802333</v>
+      </c>
+      <c r="R30">
+        <v>11.033696122221</v>
+      </c>
+      <c r="S30">
+        <v>0.0009283867454966049</v>
+      </c>
+      <c r="T30">
+        <v>0.001153026805035016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.695089</v>
+      </c>
+      <c r="H31">
+        <v>2.085267</v>
+      </c>
+      <c r="I31">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J31">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>2.1205285174255</v>
+      </c>
+      <c r="R31">
+        <v>12.723171104553</v>
+      </c>
+      <c r="S31">
+        <v>0.001605811409428421</v>
+      </c>
+      <c r="T31">
+        <v>0.001329577792073867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.1237945</v>
+      </c>
+      <c r="H32">
+        <v>6.247589</v>
+      </c>
+      <c r="I32">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J32">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>9.72207160385075</v>
+      </c>
+      <c r="R32">
+        <v>38.888286415403</v>
+      </c>
+      <c r="S32">
+        <v>0.00736222756565314</v>
+      </c>
+      <c r="T32">
+        <v>0.004063845527568592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.1237945</v>
+      </c>
+      <c r="H33">
+        <v>6.247589</v>
+      </c>
+      <c r="I33">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J33">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>9.414552257460331</v>
+      </c>
+      <c r="R33">
+        <v>56.48731354476199</v>
+      </c>
+      <c r="S33">
+        <v>0.007129352567276205</v>
+      </c>
+      <c r="T33">
+        <v>0.005902952731347982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.1237945</v>
+      </c>
+      <c r="H34">
+        <v>6.247589</v>
+      </c>
+      <c r="I34">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J34">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.05149783486216666</v>
+      </c>
+      <c r="R34">
+        <v>0.308987009173</v>
+      </c>
+      <c r="S34">
+        <v>3.899773575454084E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.22892981678704E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.1237945</v>
+      </c>
+      <c r="H35">
+        <v>6.247589</v>
+      </c>
+      <c r="I35">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J35">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>0.2224776855548334</v>
+      </c>
+      <c r="R35">
+        <v>1.334866113329</v>
+      </c>
+      <c r="S35">
+        <v>0.0001684755488414371</v>
+      </c>
+      <c r="T35">
+        <v>0.0001394941815283046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.1237945</v>
+      </c>
+      <c r="H36">
+        <v>6.247589</v>
+      </c>
+      <c r="I36">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J36">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>5.509606085817833</v>
+      </c>
+      <c r="R36">
+        <v>33.057636514907</v>
+      </c>
+      <c r="S36">
+        <v>0.004172256228274643</v>
+      </c>
+      <c r="T36">
+        <v>0.003454539674699647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.1237945</v>
+      </c>
+      <c r="H37">
+        <v>6.247589</v>
+      </c>
+      <c r="I37">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J37">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>9.529852033087749</v>
+      </c>
+      <c r="R37">
+        <v>38.119408132351</v>
+      </c>
+      <c r="S37">
+        <v>0.007216665561978032</v>
+      </c>
+      <c r="T37">
+        <v>0.003983497359525171</v>
       </c>
     </row>
   </sheetData>
